--- a/data/case1/15/P_device_3.xlsx
+++ b/data/case1/15/P_device_3.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.028123852483067788</v>
+        <v>0.028899120726830971</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.028123853862092707</v>
+        <v>-0.028899122359886169</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.031135615385307892</v>
+        <v>0.015873402094639312</v>
       </c>
       <c r="B2" s="0">
-        <v>0.031135613846517411</v>
+        <v>-0.015873403805138374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.018965364765568579</v>
+        <v>-0.051037648898651193</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.018965366220358406</v>
+        <v>0.051037647263369755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.046800222112246909</v>
+        <v>-0.054427067325529835</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.046800223586873996</v>
+        <v>0.054427065649962976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.038454809523438556</v>
+        <v>0.025159800086637662</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0384548080535837</v>
+        <v>-0.025159801829061825</v>
       </c>
     </row>
   </sheetData>
